--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C680ACC-752D-4002-944D-7D9687EBA33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B788962-7EE2-4FA8-A730-FB24D60D9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="4875" yWindow="1800" windowWidth="21600" windowHeight="11205" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,13 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>#FieldMonster{{}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$key</t>
-  </si>
-  <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +90,14 @@
   </si>
   <si>
     <t>BullA</t>
+  </si>
+  <si>
+    <t>#FieldMonster[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -505,7 +497,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -520,48 +512,48 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -599,7 +591,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -637,7 +629,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
@@ -675,7 +667,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>2</v>
@@ -713,7 +705,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
@@ -751,7 +743,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>4</v>
@@ -789,7 +781,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B788962-7EE2-4FA8-A730-FB24D60D9625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAF14D9-E1E8-4C05-9FCA-C042DB9EABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1800" windowWidth="21600" windowHeight="11205" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="1605" yWindow="2820" windowWidth="23655" windowHeight="9765" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AtkSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,7 +80,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,7 +168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,326 +501,352 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>150</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>150</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="B2" s="2" t="s">
+    <row r="6" spans="1:14">
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>225</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="E7" s="1">
+        <v>450</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M2" s="1">
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>4</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
+    <row r="8" spans="1:14">
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>900</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>150</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>150</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>225</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>450</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>900</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>10</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>0</v>
       </c>
     </row>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAF14D9-E1E8-4C05-9FCA-C042DB9EABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E6295-7B73-4492-B1D9-BB2241D73575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="2820" windowWidth="23655" windowHeight="9765" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="1515" yWindow="1155" windowWidth="18855" windowHeight="9765" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,52 +55,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>#FieldMonster[{}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+  </si>
+  <si>
     <t>PlatypusA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/PlatypusA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ChameleonA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/ChameleonA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Meerkat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/Meerkat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Porcupine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/Porcupine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/Skunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WolfA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/WolfA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BullA</t>
-  </si>
-  <si>
-    <t>#FieldMonster[{}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveSpeed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonsterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monsters/BullA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -516,24 +554,24 @@
     <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -554,21 +592,24 @@
         <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -603,13 +644,16 @@
       <c r="N2" s="1">
         <v>0</v>
       </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -644,13 +688,16 @@
       <c r="N3" s="1">
         <v>0</v>
       </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -685,13 +732,16 @@
       <c r="N4" s="1">
         <v>0</v>
       </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -726,13 +776,16 @@
       <c r="N5" s="1">
         <v>0</v>
       </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="B6" s="5">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -767,13 +820,16 @@
       <c r="N6" s="1">
         <v>0</v>
       </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -808,13 +864,16 @@
       <c r="N7" s="1">
         <v>0</v>
       </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="B8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -848,6 +907,9 @@
       </c>
       <c r="N8" s="1">
         <v>0</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14E6295-7B73-4492-B1D9-BB2241D73575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C055E-98BF-4C38-91E6-6C97CDA599BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1155" windowWidth="18855" windowHeight="9765" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -838,7 +838,7 @@
         <v>450</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <v>8</v>
@@ -882,7 +882,7 @@
         <v>900</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <v>10</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C055E-98BF-4C38-91E6-6C97CDA599BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6494E75-D9FE-4DA7-8E9F-E76A4240AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
@@ -24,8 +24,111 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>이영선</author>
+  </authors>
+  <commentList>
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{4E868B25-EC9E-4419-9CFD-CFC61C7C719D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>플레이어와의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>거리</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{EF0C0921-123B-4A88-9153-A33F3084D053}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>몬스터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>어그로</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>범위</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>#FieldMonster[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +238,18 @@
   </si>
   <si>
     <t>Monsters/BullA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AtkRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationDamping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +287,21 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -538,11 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:O8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -555,23 +681,25 @@
     <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -592,24 +720,30 @@
         <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -642,18 +776,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="P2" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:17">
       <c r="B3" s="5">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -686,18 +826,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="P3" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:17">
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -730,18 +876,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="P4" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:17">
       <c r="B5" s="5">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -774,18 +926,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -818,18 +976,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="P6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="B7" s="5">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -862,18 +1026,24 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:17">
       <c r="B8" s="5">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -906,14 +1076,21 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6494E75-D9FE-4DA7-8E9F-E76A4240AB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431E795-3137-4221-B7C8-B2B9DCA3D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
@@ -189,58 +189,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/PlatypusA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChameleonA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/ChameleonA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Meerkat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/Meerkat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Porcupine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/Porcupine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/Skunk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WolfA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/WolfA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BullA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Monsters/BullA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AtkRange</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,6 +222,34 @@
   </si>
   <si>
     <t>RotationDamping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/PlatypusA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/ChameleonA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Meerkat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Porcupine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Skunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/WolfA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/BullA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +668,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -726,16 +726,16 @@
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="P2" s="1">
         <v>5</v>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="P3" s="1">
         <v>5</v>
@@ -843,7 +843,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -879,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1">
         <v>5</v>
@@ -893,7 +893,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
         <v>2</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="P5" s="1">
         <v>5</v>
@@ -943,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1">
         <v>5</v>
@@ -993,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="1">
         <v>4</v>
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
@@ -1043,7 +1043,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P8" s="1">
         <v>5</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2431E795-3137-4221-B7C8-B2B9DCA3D376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5C6F53-0CB5-45FC-96B9-396B270E3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,13 +251,88 @@
   <si>
     <t>Prefabs/Monsters/BullA</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemCount[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steak_01,Steak_02,Cup,Log_01,Soda,Book_01,Book_02,Fish,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
+  </si>
+  <si>
+    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Bread,Donut_01,Donut_02,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
+  </si>
+  <si>
+    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
+  </si>
+  <si>
+    <t>Bucket_01,Plate_01,Plate_02,Watermelon,Banana,Apple,Orange,Book_01,Book_02,Fish,Cake,Cookie,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
+  </si>
+  <si>
+    <t>Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Carrot,Pumpkin,Pepper,Tomato,Mushroom,Garlic,Tomato_03,Avocado,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
+  </si>
+  <si>
+    <t>Steak_01,Steak_02,FullCup,Fish,SmallHPPotion,SpeedPotion,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
+  </si>
+  <si>
+    <t>Pepper,Broccoli,Tomato,Carrot,Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Mushroom,MoneyBag,Tomato_03,Grass_01,SmallMPPotion,SmallSPPotion,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +378,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +395,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +419,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +437,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -676,16 +769,21 @@
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="11.125" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9.625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="22.25" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -737,8 +835,17 @@
       <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -787,8 +894,17 @@
       <c r="Q2" s="1">
         <v>10</v>
       </c>
+      <c r="R2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -837,8 +953,17 @@
       <c r="Q3" s="1">
         <v>10</v>
       </c>
+      <c r="R3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -887,8 +1012,17 @@
       <c r="Q4" s="1">
         <v>10</v>
       </c>
+      <c r="R4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -937,8 +1071,17 @@
       <c r="Q5" s="1">
         <v>10</v>
       </c>
+      <c r="R5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -987,8 +1130,17 @@
       <c r="Q6" s="1">
         <v>10</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -1037,8 +1189,17 @@
       <c r="Q7" s="1">
         <v>10</v>
       </c>
+      <c r="R7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="B8" s="5">
         <v>7</v>
       </c>
@@ -1087,6 +1248,46 @@
       <c r="Q8" s="1">
         <v>10</v>
       </c>
+      <c r="R8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="5"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5C6F53-0CB5-45FC-96B9-396B270E3C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056BFCA-C022-4263-85E9-78BC8B09B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="7665" yWindow="2730" windowWidth="21120" windowHeight="9765" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -265,67 +265,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Bread,Donut_01,Donut_02,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
+  </si>
+  <si>
+    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
+  </si>
+  <si>
+    <t>Bucket_01,Plate_01,Plate_02,Watermelon,Banana,Apple,Orange,Book_01,Book_02,Fish,Cake,Cookie,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
+  </si>
+  <si>
+    <t>Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Carrot,Pumpkin,Pepper,Tomato,Mushroom,Garlic,Tomato_03,Avocado,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
+  </si>
+  <si>
+    <t>Steak_01,Steak_02,FullCup,Fish,SmallHPPotion,SpeedPotion,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
+  </si>
+  <si>
+    <t>Pepper,Broccoli,Tomato,Carrot,Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Mushroom,MoneyBag,Tomato_03,Grass_01,SmallMPPotion,SmallSPPotion,Gold</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
+  </si>
+  <si>
     <t>Steak_01,Steak_02,Cup,Log_01,Soda,Book_01,Book_02,Fish,Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Bread,Donut_01,Donut_02,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
-  </si>
-  <si>
-    <t>Bucket_01,Plate_01,Plate_02,Watermelon,Banana,Apple,Orange,Book_01,Book_02,Fish,Cake,Cookie,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
-  </si>
-  <si>
-    <t>Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Carrot,Pumpkin,Pepper,Tomato,Mushroom,Garlic,Tomato_03,Avocado,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,FullCup,Fish,SmallHPPotion,SpeedPotion,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
-  </si>
-  <si>
-    <t>Pepper,Broccoli,Tomato,Carrot,Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Mushroom,MoneyBag,Tomato_03,Grass_01,SmallMPPotion,SmallSPPotion,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -760,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -895,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -954,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="S3" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1013,13 +1016,13 @@
         <v>10</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1072,13 +1075,13 @@
         <v>10</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1131,13 +1134,13 @@
         <v>10</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1190,13 +1193,13 @@
         <v>10</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1249,13 +1252,13 @@
         <v>10</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:20">

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F056BFCA-C022-4263-85E9-78BC8B09B1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD5219-AAB3-4396-92AB-0CEC454D1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="2730" windowWidth="21120" windowHeight="9765" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="9585" yWindow="2130" windowWidth="19110" windowHeight="12255" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -772,16 +772,16 @@
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="11.125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="9.625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22.25" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="11.125" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="22.25" customWidth="1"/>
+    <col min="16" max="16" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
     <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -886,7 +886,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
@@ -945,7 +945,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O3" t="s">
         <v>25</v>
@@ -1004,7 +1004,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O4" t="s">
         <v>26</v>
@@ -1063,7 +1063,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="s">
         <v>27</v>
@@ -1122,7 +1122,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O6" t="s">
         <v>28</v>
@@ -1181,7 +1181,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O7" t="s">
         <v>29</v>
@@ -1240,7 +1240,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="O8" t="s">
         <v>30</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AD5219-AAB3-4396-92AB-0CEC454D1811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DABF7E5-12BE-4A03-8971-45EF4C391083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2130" windowWidth="19110" windowHeight="12255" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,84 +250,6 @@
   </si>
   <si>
     <t>Prefabs/Monsters/BullA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItem[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemCount[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weight[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Bread,Donut_01,Donut_02,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,Candle_01,Candle_02,Candle_03,Cup,Soda,Book_01,Book_02,Fish,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
-  </si>
-  <si>
-    <t>Bucket_01,Plate_01,Plate_02,Watermelon,Banana,Apple,Orange,Book_01,Book_02,Fish,Cake,Cookie,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
-  </si>
-  <si>
-    <t>Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Carrot,Pumpkin,Pepper,Tomato,Mushroom,Garlic,Tomato_03,Avocado,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,FullCup,Fish,SmallHPPotion,SpeedPotion,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
-  </si>
-  <si>
-    <t>Pepper,Broccoli,Tomato,Carrot,Mushroom_01,Mushroom_02,Mushroom_03,Mushroom_04,Mushroom_05,Mushroom_06,Mushroom_07,Mushroom,MoneyBag,Tomato_03,Grass_01,SmallMPPotion,SmallSPPotion,Gold</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
-  </si>
-  <si>
-    <t>Steak_01,Steak_02,Cup,Log_01,Soda,Book_01,Book_02,Fish,Gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,14 +303,8 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -398,12 +314,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,12 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -781,12 +685,9 @@
     <col min="15" max="15" width="22.25" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="10.875" customWidth="1"/>
-    <col min="19" max="19" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,17 +739,8 @@
       <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:17">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -897,17 +789,8 @@
       <c r="Q2" s="1">
         <v>10</v>
       </c>
-      <c r="R2" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>54</v>
-      </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:17">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -956,17 +839,8 @@
       <c r="Q3" s="1">
         <v>10</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:17">
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -1015,17 +889,8 @@
       <c r="Q4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>39</v>
-      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:17">
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -1074,17 +939,8 @@
       <c r="Q5" s="1">
         <v>10</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:17">
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -1133,17 +989,8 @@
       <c r="Q6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>45</v>
-      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:17">
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -1192,17 +1039,8 @@
       <c r="Q7" s="1">
         <v>10</v>
       </c>
-      <c r="R7" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:17">
       <c r="B8" s="5">
         <v>7</v>
       </c>
@@ -1251,46 +1089,6 @@
       <c r="Q8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="5"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DABF7E5-12BE-4A03-8971-45EF4C391083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B2A324-A395-4BBF-9CD2-DEEFDB151BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -123,12 +123,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{854BB79A-A17B-403F-A53B-6821B38A5E12}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ItemID
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +265,100 @@
   </si>
   <si>
     <t>Prefabs/Monsters/BullA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SquirrelA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ostrich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/SquirrelA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Ostrich</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItem[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weigth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -257,7 +366,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,8 +412,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -350,6 +471,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +795,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -685,9 +815,10 @@
     <col min="15" max="15" width="22.25" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="20" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -739,8 +870,17 @@
       <c r="Q1" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="R1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:20">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -789,8 +929,17 @@
       <c r="Q2" s="1">
         <v>10</v>
       </c>
+      <c r="R2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:20">
       <c r="B3" s="5">
         <v>2</v>
       </c>
@@ -839,8 +988,17 @@
       <c r="Q3" s="1">
         <v>10</v>
       </c>
+      <c r="R3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:20">
       <c r="B4" s="5">
         <v>3</v>
       </c>
@@ -889,8 +1047,17 @@
       <c r="Q4" s="1">
         <v>10</v>
       </c>
+      <c r="R4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:20">
       <c r="B5" s="5">
         <v>4</v>
       </c>
@@ -939,8 +1106,17 @@
       <c r="Q5" s="1">
         <v>10</v>
       </c>
+      <c r="R5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:20">
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -989,8 +1165,17 @@
       <c r="Q6" s="1">
         <v>10</v>
       </c>
+      <c r="R6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:20">
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -1039,8 +1224,17 @@
       <c r="Q7" s="1">
         <v>10</v>
       </c>
+      <c r="R7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:20">
       <c r="B8" s="5">
         <v>7</v>
       </c>
@@ -1088,6 +1282,133 @@
       </c>
       <c r="Q8" s="1">
         <v>10</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>10</v>
+      </c>
+      <c r="R9" s="6">
+        <v>7</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+      <c r="T9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>225</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>10</v>
+      </c>
+      <c r="R10" s="6">
+        <v>7</v>
+      </c>
+      <c r="S10" s="6">
+        <v>1</v>
+      </c>
+      <c r="T10" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B2A324-A395-4BBF-9CD2-DEEFDB151BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79039E74-A977-49D0-AD50-D933E6E79379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="9060" yWindow="1200" windowWidth="17145" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,77 +288,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
+  </si>
+  <si>
+    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
+  </si>
+  <si>
+    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
+  </si>
+  <si>
+    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weigth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weigth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,6 +421,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -453,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -472,7 +481,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -480,6 +489,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -874,10 +886,10 @@
         <v>35</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -930,13 +942,13 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -989,13 +1001,13 @@
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>37</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1048,13 +1060,13 @@
         <v>10</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1107,13 +1119,13 @@
         <v>10</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1166,13 +1178,13 @@
         <v>10</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1225,13 +1237,13 @@
         <v>10</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1284,13 +1296,13 @@
         <v>10</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:20">

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79039E74-A977-49D0-AD50-D933E6E79379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536B031-312F-4246-A821-6698ED8F4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9060" yWindow="1200" windowWidth="17145" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -345,14 +345,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weigth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DropItemCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,1,1,1,1,1,1,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +354,14 @@
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1,1,1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropItemCount[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weigth[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +810,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -886,10 +886,10 @@
         <v>35</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -945,7 +945,7 @@
         <v>47</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>36</v>
@@ -1063,7 +1063,7 @@
         <v>49</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T4" s="7" t="s">
         <v>39</v>
@@ -1240,7 +1240,7 @@
         <v>47</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>44</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4536B031-312F-4246-A821-6698ED8F4929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8963B-87DF-4304-B19D-A5E836FAEAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="8160" yWindow="1455" windowWidth="16995" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,39 +288,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.11,0.11,0.11,0.11,0.11,0.11,0.11,0.12,0.11</t>
-  </si>
-  <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
   </si>
   <si>
-    <t>0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.07,0.08,0.07,0.07,0.07,0.08</t>
-  </si>
-  <si>
-    <t>0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.09,0.1,0.09</t>
-  </si>
-  <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
   </si>
   <si>
-    <t>0.07,0.07,0.07,0.08,0.08,0.08,0.08,0.07,0.07,0.08,0.08,0.08,0.09</t>
-  </si>
-  <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
   </si>
   <si>
-    <t>0.06,0.06,0.06,0.06,0.06,0.06,0.06,0.07,0.06,0.07,0.06,0.06,0.06,0.07,0.07,0.06</t>
-  </si>
-  <si>
-    <t>0.16,0.16,0.16,0.16,0.1,0.1,0.16</t>
-  </si>
-  <si>
     <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
   </si>
   <si>
-    <t>0.06,0.07,0.06,0.07,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.05,0.07,0.07,0.05,0.05,0.05</t>
-  </si>
-  <si>
     <t>7,7,7,7,7,7,7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -362,6 +341,33 @@
   </si>
   <si>
     <t>Weigth[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,11,11,11,11,11,11,12,11</t>
+  </si>
+  <si>
+    <t>7,7,7,7,7,7,7,7,7,8,7,7,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,9,9,9,9,9,9,9,9,10,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7,8,8,8,8,7,7,8,8,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,6,6,6,6,6,7,6,7,6,6,6,7,7,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,16,16,16,10,10,16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,6,7,5,5,5,5,5,5,5,5,5,7,7,5,5,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +816,7 @@
   <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -886,10 +892,10 @@
         <v>35</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -942,13 +948,13 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1001,13 +1007,13 @@
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1060,13 +1066,13 @@
         <v>10</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1119,13 +1125,13 @@
         <v>10</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1178,13 +1184,13 @@
         <v>10</v>
       </c>
       <c r="R6" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1237,13 +1243,13 @@
         <v>10</v>
       </c>
       <c r="R7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S7" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="T7" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1296,13 +1302,13 @@
         <v>10</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1361,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1420,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="6">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A8963B-87DF-4304-B19D-A5E836FAEAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67C6E0-9454-4B32-8E39-C4D0CFCE91DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="1455" windowWidth="16995" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="11580" yWindow="1170" windowWidth="15555" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,54 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,10</t>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1,1,1,10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DropItemCount[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -344,30 +296,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11,11,11,11,11,11,11,12,11</t>
-  </si>
-  <si>
-    <t>7,7,7,7,7,7,7,7,7,8,7,7,7,8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,9,9,9,9,9,9,9,9,10,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7,8,8,8,8,7,7,8,8,8,9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,6,6,6,6,6,6,7,6,7,6,6,6,7,7,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,16,16,16,10,10,16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,7,6,7,5,5,5,5,5,5,5,5,5,7,7,5,5,5</t>
+    <t>QuestSkunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15,12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15,12,13,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,20,20,20,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33,33,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,12,13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15,17,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1,3,5,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,7.5,7.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,10,10,10,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -813,18 +798,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="11.125" customWidth="1"/>
     <col min="12" max="12" width="11.625" customWidth="1"/>
@@ -892,10 +878,10 @@
         <v>35</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -948,13 +934,13 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="T2" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1007,13 +993,13 @@
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="T3" s="7" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1069,10 +1055,10 @@
         <v>42</v>
       </c>
       <c r="S4" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="T4" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1125,13 +1111,13 @@
         <v>10</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1183,14 +1169,14 @@
       <c r="Q6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>55</v>
+      <c r="R6" s="7">
+        <v>16</v>
+      </c>
+      <c r="S6" s="7">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1243,13 +1229,13 @@
         <v>10</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1302,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1360,14 +1346,14 @@
       <c r="Q9" s="1">
         <v>10</v>
       </c>
-      <c r="R9" s="6">
-        <v>7</v>
-      </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-      <c r="T9" s="6">
-        <v>100</v>
+      <c r="R9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1419,16 +1405,81 @@
       <c r="Q10" s="1">
         <v>10</v>
       </c>
-      <c r="R10" s="6">
-        <v>7</v>
-      </c>
-      <c r="S10" s="6">
-        <v>1</v>
-      </c>
-      <c r="T10" s="6">
+      <c r="R10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>100</v>
       </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O11" t="s">
+        <v>28</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>10</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
     </row>
+    <row r="19" ht="17.25" customHeight="1"/>
+    <row r="20" ht="25.5" customHeight="1"/>
+    <row r="21" ht="17.25" customHeight="1"/>
+    <row r="22" ht="25.5" customHeight="1"/>
+    <row r="23" ht="25.5" customHeight="1"/>
+    <row r="25" ht="25.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D67C6E0-9454-4B32-8E39-C4D0CFCE91DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A85CB-6E35-4AB2-922A-A510ED0EE8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="1170" windowWidth="15555" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="105" yWindow="45" windowWidth="14715" windowHeight="15240" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -798,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A12" sqref="A12:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1474,12 +1474,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17.25" customHeight="1"/>
-    <row r="20" ht="25.5" customHeight="1"/>
-    <row r="21" ht="17.25" customHeight="1"/>
-    <row r="22" ht="25.5" customHeight="1"/>
-    <row r="23" ht="25.5" customHeight="1"/>
-    <row r="25" ht="25.5" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456A85CB-6E35-4AB2-922A-A510ED0EE8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F6F51A-9296-4016-837D-F45353026146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="45" windowWidth="14715" windowHeight="15240" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>50,10,10,10,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/QuestSkunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +805,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD1048576"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -816,7 +820,7 @@
     <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="13" max="13" width="9.625" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="22.25" customWidth="1"/>
+    <col min="15" max="15" width="25.75" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
     <col min="17" max="17" width="17.375" customWidth="1"/>
     <col min="18" max="20" width="17.375" bestFit="1" customWidth="1"/>
@@ -1456,7 +1460,7 @@
         <v>1.6</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="P11" s="1">
         <v>5</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\unity\TeamProject\05TeamProject14\Project_P\excel2json-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F6F51A-9296-4016-837D-F45353026146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD52A1BF-7DE0-4C08-B69A-621461A2E2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="660" yWindow="1725" windowWidth="14595" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -805,7 +805,7 @@
   <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1374,7 +1374,7 @@
         <v>225</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
         <v>7</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD52A1BF-7DE0-4C08-B69A-621461A2E2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65365B6F-EFF8-4B93-8929-C449A3D22901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1725" windowWidth="14595" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="12660" yWindow="1425" windowWidth="15870" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -487,6 +487,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -904,8 +907,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
+      <c r="G2" s="10">
+        <v>7</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -963,14 +966,14 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>4</v>
+      <c r="G3" s="10">
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
+      <c r="I3" s="10">
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1.1000000000000001</v>
@@ -1013,8 +1016,8 @@
       <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
+      <c r="D4" s="10">
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>150</v>
@@ -1022,14 +1025,14 @@
       <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
+      <c r="G4" s="10">
+        <v>14</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.5</v>
       </c>
       <c r="J4" s="1">
         <v>1</v>
@@ -1072,8 +1075,8 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>2</v>
+      <c r="D5" s="10">
+        <v>3</v>
       </c>
       <c r="E5" s="1">
         <v>150</v>
@@ -1081,14 +1084,14 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
+      <c r="G5" s="10">
+        <v>12</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="I5" s="10">
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -1131,8 +1134,8 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
+      <c r="D6" s="10">
+        <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>225</v>
@@ -1140,14 +1143,14 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1">
-        <v>7</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
+      <c r="G6" s="10">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10">
+        <v>2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0.5</v>
       </c>
       <c r="J6" s="1">
         <v>1</v>
@@ -1190,8 +1193,8 @@
       <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1">
-        <v>4</v>
+      <c r="D7" s="10">
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>450</v>
@@ -1199,14 +1202,14 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>8</v>
-      </c>
-      <c r="H7" s="1">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
+      <c r="G7" s="10">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.75</v>
       </c>
       <c r="J7" s="1">
         <v>1.1000000000000001</v>
@@ -1249,8 +1252,8 @@
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
-        <v>5</v>
+      <c r="D8" s="10">
+        <v>9</v>
       </c>
       <c r="E8" s="1">
         <v>900</v>
@@ -1258,11 +1261,11 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>2.25</v>
+      <c r="G8" s="10">
+        <v>30</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1308,8 +1311,8 @@
       <c r="C9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
+      <c r="D9" s="10">
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>100</v>
@@ -1317,14 +1320,14 @@
       <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9" s="1">
-        <v>4</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
+      <c r="G9" s="10">
+        <v>10</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1.25</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0.5</v>
       </c>
       <c r="J9" s="1">
         <v>1.1000000000000001</v>
@@ -1481,6 +1484,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65365B6F-EFF8-4B93-8929-C449A3D22901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831CAA4-0A92-4D39-8C7C-B65713804316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="1425" windowWidth="15870" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="9435" yWindow="1890" windowWidth="15870" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,14 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs/Monsters/WolfA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs/Monsters/BullA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SquirrelA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -337,22 +329,6 @@
   </si>
   <si>
     <t>16,12,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,15,17,1,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,1,3,5,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,7.5,7.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,10,10,10,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -807,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -882,13 +858,13 @@
         <v>23</v>
       </c>
       <c r="R1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -901,8 +877,8 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>100</v>
+      <c r="E2" s="10">
+        <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -941,13 +917,13 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -960,8 +936,8 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>100</v>
+      <c r="E3" s="10">
+        <v>10</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -1000,13 +976,13 @@
         <v>10</v>
       </c>
       <c r="R3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1017,25 +993,25 @@
         <v>16</v>
       </c>
       <c r="D4" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="10">
+        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="10">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H4" s="10">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="I4" s="10">
         <v>0.5</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K4" s="1">
         <v>0</v>
@@ -1050,7 +1026,7 @@
         <v>1.6</v>
       </c>
       <c r="O4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P4" s="1">
         <v>5</v>
@@ -1058,14 +1034,14 @@
       <c r="Q4" s="1">
         <v>10</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T4" s="7" t="s">
+      <c r="R4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>44</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1078,8 +1054,8 @@
       <c r="D5" s="10">
         <v>3</v>
       </c>
-      <c r="E5" s="1">
-        <v>150</v>
+      <c r="E5" s="10">
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1118,13 +1094,13 @@
         <v>10</v>
       </c>
       <c r="R5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1135,19 +1111,19 @@
         <v>18</v>
       </c>
       <c r="D6" s="10">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>225</v>
+        <v>3</v>
+      </c>
+      <c r="E6" s="10">
+        <v>25</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H6" s="10">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="10">
         <v>0.5</v>
@@ -1168,7 +1144,7 @@
         <v>1.6</v>
       </c>
       <c r="O6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="1">
         <v>5</v>
@@ -1176,14 +1152,14 @@
       <c r="Q6" s="1">
         <v>10</v>
       </c>
-      <c r="R6" s="7">
-        <v>16</v>
-      </c>
-      <c r="S6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7">
-        <v>100</v>
+      <c r="R6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1194,25 +1170,25 @@
         <v>19</v>
       </c>
       <c r="D7" s="10">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1">
-        <v>450</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="10">
+        <v>45</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H7" s="10">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="I7" s="10">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1">
         <v>0</v>
@@ -1227,7 +1203,7 @@
         <v>1.6</v>
       </c>
       <c r="O7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
@@ -1236,13 +1212,13 @@
         <v>10</v>
       </c>
       <c r="R7" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="S7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T7" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1253,22 +1229,22 @@
         <v>20</v>
       </c>
       <c r="D8" s="10">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>900</v>
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>90</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="10">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H8" s="10">
-        <v>3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.5</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -1286,7 +1262,7 @@
         <v>1.6</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P8" s="1">
         <v>5</v>
@@ -1294,14 +1270,14 @@
       <c r="Q8" s="1">
         <v>10</v>
       </c>
-      <c r="R8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>52</v>
+      <c r="R8" s="7">
+        <v>16</v>
+      </c>
+      <c r="S8" s="7">
+        <v>1</v>
+      </c>
+      <c r="T8" s="7">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1309,13 +1285,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="10">
         <v>2</v>
       </c>
-      <c r="E9" s="1">
-        <v>100</v>
+      <c r="E9" s="10">
+        <v>10</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -1345,7 +1321,7 @@
         <v>1.6</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
         <v>5</v>
@@ -1354,13 +1330,13 @@
         <v>10</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1368,13 +1344,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="1">
-        <v>225</v>
+      <c r="E10" s="10">
+        <v>90</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1404,7 +1380,7 @@
         <v>1.6</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="1">
         <v>5</v>
@@ -1413,13 +1389,13 @@
         <v>10</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1427,22 +1403,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>100</v>
+      <c r="E11" s="10">
+        <v>10</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
+      <c r="G11" s="10">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.75</v>
       </c>
       <c r="I11" s="1">
         <v>0.5</v>
@@ -1463,7 +1439,7 @@
         <v>1.6</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P11" s="1">
         <v>5</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B831CAA4-0A92-4D39-8C7C-B65713804316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2293B103-E8C7-4C3A-9096-8B3AC1EBE5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="1890" windowWidth="15870" windowHeight="13260" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,14 @@
   </si>
   <si>
     <t>Prefabs/Monsters/QuestSkunk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/WolfA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/BullA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1026,7 +1034,7 @@
         <v>1.6</v>
       </c>
       <c r="O4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="P4" s="1">
         <v>5</v>
@@ -1144,7 +1152,7 @@
         <v>1.6</v>
       </c>
       <c r="O6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="1">
         <v>5</v>
@@ -1203,7 +1211,7 @@
         <v>1.6</v>
       </c>
       <c r="O7" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
@@ -1262,7 +1270,7 @@
         <v>1.6</v>
       </c>
       <c r="O8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="P8" s="1">
         <v>5</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2293B103-E8C7-4C3A-9096-8B3AC1EBE5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0035D-135B-461A-8E1D-55703FC4C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="10980" yWindow="450" windowWidth="17430" windowHeight="14685" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,10 @@
   </si>
   <si>
     <t>Prefabs/Monsters/BullA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestWolfA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1465,6 +1469,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:20">
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4</v>
+      </c>
+      <c r="E12" s="10">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1.75</v>
+      </c>
+      <c r="I12" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>10</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0035D-135B-461A-8E1D-55703FC4C3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7412B4-4291-4824-9426-0C42F9BD9E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10980" yWindow="450" windowWidth="17430" windowHeight="14685" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -143,7 +152,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -292,14 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>14,15,12,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>25,25,25,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,22 +317,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12,13,17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>33,33,33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,12,13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Monsters/QuestSkunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,6 +334,122 @@
   </si>
   <si>
     <t>QuestWolfA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrabSphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonMush</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geistwood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrollicCrown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gloomulcher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Mon_05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Mon_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Mon_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Mon_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs/Monsters/Mon_04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,15,12,13,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,12,13,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,12,13,1,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,17,1,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,17,3,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,21,22,2,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,19,1,3,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,25,7,19,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,4,7,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1,33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,11 +578,65 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,10 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -929,88 +1091,88 @@
         <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" s="7" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="B3" s="5">
+    <row r="3" spans="1:20" s="12" customFormat="1">
+      <c r="B3" s="13">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
       <c r="E3" s="10">
         <v>10</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <v>0</v>
       </c>
       <c r="G3" s="10">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="10">
         <v>1</v>
       </c>
       <c r="I3" s="10">
         <v>0.5</v>
       </c>
-      <c r="J3" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N3" s="1">
+      <c r="J3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3" s="10">
         <v>1.6</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="10">
         <v>5</v>
       </c>
-      <c r="Q3" s="1">
-        <v>10</v>
-      </c>
-      <c r="R3" s="7" t="s">
+      <c r="Q3" s="10">
+        <v>10</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>42</v>
-      </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="B4" s="5">
+    <row r="4" spans="1:20" s="12" customFormat="1">
+      <c r="B4" s="13">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" s="10">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="10">
         <v>0</v>
       </c>
       <c r="G4" s="10">
@@ -1022,54 +1184,54 @@
       <c r="I4" s="10">
         <v>0.5</v>
       </c>
-      <c r="J4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N4" s="1">
+      <c r="J4" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0</v>
+      </c>
+      <c r="L4" s="10">
+        <v>1</v>
+      </c>
+      <c r="M4" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N4" s="10">
         <v>1.6</v>
       </c>
-      <c r="O4" t="s">
+      <c r="O4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="10">
         <v>5</v>
       </c>
-      <c r="Q4" s="1">
-        <v>10</v>
-      </c>
-      <c r="R4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="6" t="s">
-        <v>45</v>
+      <c r="Q4" s="10">
+        <v>10</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="B5" s="5">
+    <row r="5" spans="1:20" s="12" customFormat="1">
+      <c r="B5" s="13">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="10">
         <v>3</v>
       </c>
       <c r="E5" s="10">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1">
+        <v>25</v>
+      </c>
+      <c r="F5" s="10">
         <v>0</v>
       </c>
       <c r="G5" s="10">
@@ -1081,54 +1243,54 @@
       <c r="I5" s="10">
         <v>0.5</v>
       </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N5" s="1">
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="M5" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N5" s="10">
         <v>1.6</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="10">
         <v>5</v>
       </c>
-      <c r="Q5" s="1">
-        <v>10</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>45</v>
+      <c r="Q5" s="10">
+        <v>10</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="B6" s="5">
+    <row r="6" spans="1:20" s="12" customFormat="1">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="10">
-        <v>25</v>
-      </c>
-      <c r="F6" s="1">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10">
         <v>0</v>
       </c>
       <c r="G6" s="10">
@@ -1140,392 +1302,687 @@
       <c r="I6" s="10">
         <v>0.5</v>
       </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N6" s="1">
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>1</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N6" s="10">
         <v>1.6</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="10">
         <v>5</v>
       </c>
-      <c r="Q6" s="1">
-        <v>10</v>
-      </c>
-      <c r="R6" s="7" t="s">
+      <c r="Q6" s="10">
+        <v>10</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="18" customFormat="1">
+      <c r="B7" s="19">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+      <c r="E7" s="11">
+        <v>45</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>1</v>
+      </c>
+      <c r="M7" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="P7" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>10</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" s="18" customFormat="1">
+      <c r="B8" s="19">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="11">
+        <v>60</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>16</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="P8" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>10</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" s="18" customFormat="1">
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="22">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>15</v>
+      </c>
+      <c r="F9" s="23">
+        <v>0</v>
+      </c>
+      <c r="G9" s="23">
+        <v>10</v>
+      </c>
+      <c r="H9" s="23">
+        <v>1.25</v>
+      </c>
+      <c r="I9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K9" s="11">
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <v>1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>10</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" s="18" customFormat="1">
+      <c r="B10" s="19">
+        <v>9</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="11">
+        <v>3</v>
+      </c>
+      <c r="E10" s="11">
+        <v>90</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1</v>
+      </c>
+      <c r="K10" s="11">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>10</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="S10" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" s="18" customFormat="1">
+      <c r="B11" s="19">
+        <v>10</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="11">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>10</v>
+      </c>
+      <c r="R11" s="21">
+        <v>0</v>
+      </c>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
+      <c r="T11" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" s="18" customFormat="1">
+      <c r="B12" s="19">
+        <v>11</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>45</v>
       </c>
+      <c r="D12" s="11">
+        <v>4</v>
+      </c>
+      <c r="E12" s="11">
+        <v>45</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>14</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1.75</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>10</v>
+      </c>
+      <c r="R12" s="21">
+        <v>0</v>
+      </c>
+      <c r="S12" s="21">
+        <v>0</v>
+      </c>
+      <c r="T12" s="21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="B7" s="5">
+    <row r="13" spans="1:20" s="25" customFormat="1">
+      <c r="B13" s="26">
+        <v>12</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="28">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9">
+        <v>70</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1</v>
+      </c>
+      <c r="G13" s="28">
+        <v>30</v>
+      </c>
+      <c r="H13" s="28">
+        <v>3.25</v>
+      </c>
+      <c r="I13" s="28">
+        <v>1.25</v>
+      </c>
+      <c r="J13" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K13" s="9">
+        <v>0</v>
+      </c>
+      <c r="L13" s="28">
+        <v>1</v>
+      </c>
+      <c r="M13" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N13" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="P13" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>10</v>
+      </c>
+      <c r="R13" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" s="25" customFormat="1">
+      <c r="B14" s="26">
+        <v>13</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="28">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>60</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
+        <v>35</v>
+      </c>
+      <c r="H14" s="28">
+        <v>3</v>
+      </c>
+      <c r="I14" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="28">
+        <v>1</v>
+      </c>
+      <c r="K14" s="9">
+        <v>0</v>
+      </c>
+      <c r="L14" s="28">
+        <v>1</v>
+      </c>
+      <c r="M14" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="28">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="10">
-        <v>4</v>
-      </c>
-      <c r="E7" s="10">
-        <v>45</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="Q14" s="9">
+        <v>10</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" s="25" customFormat="1">
+      <c r="B15" s="26">
         <v>14</v>
       </c>
-      <c r="H7" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="I7" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N7" s="1">
+      <c r="C15" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="28">
+        <v>9</v>
+      </c>
+      <c r="E15" s="9">
+        <v>90</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1</v>
+      </c>
+      <c r="G15" s="28">
+        <v>40</v>
+      </c>
+      <c r="H15" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="28">
+        <v>1</v>
+      </c>
+      <c r="M15" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N15" s="9">
         <v>1.6</v>
       </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" s="1">
+      <c r="O15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="28">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>10</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" s="25" customFormat="1">
+      <c r="B16" s="26">
+        <v>15</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="28">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9">
+        <v>90</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1</v>
+      </c>
+      <c r="G16" s="28">
+        <v>40</v>
+      </c>
+      <c r="H16" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K16" s="9">
+        <v>0</v>
+      </c>
+      <c r="L16" s="28">
+        <v>1</v>
+      </c>
+      <c r="M16" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N16" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="28">
         <v>5</v>
       </c>
-      <c r="Q7" s="1">
-        <v>10</v>
-      </c>
-      <c r="R7" s="7" t="s">
+      <c r="Q16" s="9">
+        <v>10</v>
+      </c>
+      <c r="R16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="S16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="T16" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" s="25" customFormat="1">
+      <c r="B17" s="26">
+        <v>16</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="28">
+        <v>8</v>
+      </c>
+      <c r="E17" s="9">
+        <v>70</v>
+      </c>
+      <c r="F17" s="28">
+        <v>1</v>
+      </c>
+      <c r="G17" s="28">
+        <v>30</v>
+      </c>
+      <c r="H17" s="28">
+        <v>3.25</v>
+      </c>
+      <c r="I17" s="28">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28">
+        <v>1.2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="28">
+        <v>1</v>
+      </c>
+      <c r="M17" s="28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N17" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="28">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>10</v>
+      </c>
+      <c r="R17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T17" s="25" t="s">
         <v>40</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T7" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" s="5">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10">
-        <v>5</v>
-      </c>
-      <c r="E8" s="10">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="10">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10">
-        <v>2</v>
-      </c>
-      <c r="I8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O8" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>10</v>
-      </c>
-      <c r="R8" s="7">
-        <v>16</v>
-      </c>
-      <c r="S8" s="7">
-        <v>1</v>
-      </c>
-      <c r="T8" s="7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2</v>
-      </c>
-      <c r="E9" s="10">
-        <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="10">
-        <v>10</v>
-      </c>
-      <c r="H9" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="I9" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>10</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="B10" s="5">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10">
-        <v>90</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>10</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="B11" s="5">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>7</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>10</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0</v>
-      </c>
-      <c r="S11" s="7">
-        <v>0</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" s="5">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4</v>
-      </c>
-      <c r="E12" s="10">
-        <v>45</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>14</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1.75</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>10</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0</v>
-      </c>
-      <c r="S12" s="7">
-        <v>0</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7412B4-4291-4824-9426-0C42F9BD9E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3405F2-53A4-4ED8-B176-CFC06E1FDC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
@@ -39,7 +39,33 @@
     <author>이영선</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{4E868B25-EC9E-4419-9CFD-CFC61C7C719D}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{C0590D1A-3448-4069-8353-8482811F3950}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0 - 근거리
+1 - 원거리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{4E868B25-EC9E-4419-9CFD-CFC61C7C719D}">
       <text>
         <r>
           <rPr>
@@ -75,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{EF0C0921-123B-4A88-9153-A33F3084D053}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{EF0C0921-123B-4A88-9153-A33F3084D053}">
       <text>
         <r>
           <rPr>
@@ -132,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{854BB79A-A17B-403F-A53B-6821B38A5E12}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{854BB79A-A17B-403F-A53B-6821B38A5E12}">
       <text>
         <r>
           <rPr>
@@ -152,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
   <si>
     <t>AtkStance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +476,10 @@
   </si>
   <si>
     <t>1,1,1,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortDistance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,7 +487,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +545,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -550,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,64 +614,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,13 +952,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4297DAEF-F778-44C4-9BC9-6DB94BE857D0}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -966,20 +966,21 @@
     <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="25.75" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="20" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="11.125" customWidth="1"/>
+    <col min="13" max="13" width="11.625" customWidth="1"/>
+    <col min="14" max="14" width="9.625" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="25.75" customWidth="1"/>
+    <col min="17" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="17.375" customWidth="1"/>
+    <col min="19" max="21" width="17.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -995,53 +996,56 @@
       <c r="E1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
+      <c r="F1" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:21">
       <c r="B2" s="5">
         <v>1</v>
       </c>
@@ -1051,937 +1055,985 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>7</v>
       </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
       <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
         <v>0.5</v>
       </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
       <c r="K2" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O2" s="1">
         <v>1.6</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
-        <v>10</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1">
-      <c r="B3" s="13">
+    <row r="3" spans="1:21">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>10</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="10">
-        <v>1</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>0.5</v>
       </c>
-      <c r="J3" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N3" s="10">
+      <c r="K3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O3" s="1">
         <v>1.6</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" t="s">
         <v>25</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="1">
         <v>5</v>
       </c>
-      <c r="Q3" s="10">
-        <v>10</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="1">
+        <v>10</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="U3" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1">
-      <c r="B4" s="13">
+    <row r="4" spans="1:21">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4" s="10">
-        <v>0</v>
-      </c>
-      <c r="G4" s="10">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
         <v>1.25</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="1">
         <v>0.5</v>
       </c>
-      <c r="J4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K4" s="10">
-        <v>0</v>
-      </c>
-      <c r="L4" s="10">
-        <v>1</v>
-      </c>
-      <c r="M4" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N4" s="10">
+      <c r="K4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O4" s="1">
         <v>1.6</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="10">
+      <c r="Q4" s="1">
         <v>5</v>
       </c>
-      <c r="Q4" s="10">
-        <v>10</v>
-      </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="1">
+        <v>10</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="U4" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1">
-      <c r="B5" s="13">
+    <row r="5" spans="1:21">
+      <c r="B5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="1">
         <v>25</v>
       </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>12</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I5" s="1">
         <v>1.5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="1">
         <v>0.5</v>
       </c>
-      <c r="J5" s="10">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
-        <v>0</v>
-      </c>
-      <c r="L5" s="10">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N5" s="10">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O5" s="1">
         <v>1.6</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="10">
+      <c r="Q5" s="1">
         <v>5</v>
       </c>
-      <c r="Q5" s="10">
-        <v>10</v>
-      </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="1">
+        <v>10</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="T5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="U5" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="12" customFormat="1">
-      <c r="B6" s="13">
+    <row r="6" spans="1:21">
+      <c r="B6" s="5">
         <v>5</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="1">
         <v>35</v>
       </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>12</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I6" s="1">
         <v>1.5</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="1">
         <v>0.5</v>
       </c>
-      <c r="J6" s="10">
-        <v>1</v>
-      </c>
-      <c r="K6" s="10">
-        <v>0</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N6" s="10">
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O6" s="1">
         <v>1.6</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="10">
+      <c r="Q6" s="1">
         <v>5</v>
       </c>
-      <c r="Q6" s="10">
-        <v>10</v>
-      </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="1">
+        <v>10</v>
+      </c>
+      <c r="S6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="T6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="U6" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="18" customFormat="1">
-      <c r="B7" s="19">
+    <row r="7" spans="1:21">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="1">
         <v>45</v>
       </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
         <v>14</v>
       </c>
-      <c r="H7" s="11">
+      <c r="I7" s="1">
         <v>1.75</v>
       </c>
-      <c r="I7" s="11">
+      <c r="J7" s="1">
         <v>0.5</v>
       </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-      <c r="L7" s="11">
-        <v>1</v>
-      </c>
-      <c r="M7" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O7" s="1">
         <v>1.6</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="P7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="1">
         <v>5</v>
       </c>
-      <c r="Q7" s="11">
-        <v>10</v>
-      </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="T7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="T7" s="21" t="s">
+      <c r="U7" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="18" customFormat="1">
-      <c r="B8" s="19">
+    <row r="8" spans="1:21">
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="1">
         <v>60</v>
       </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
         <v>16</v>
       </c>
-      <c r="H8" s="11">
+      <c r="I8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="J8" s="1">
         <v>0.5</v>
       </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
-        <v>0</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1</v>
-      </c>
-      <c r="M8" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O8" s="1">
         <v>1.6</v>
       </c>
-      <c r="O8" s="18" t="s">
+      <c r="P8" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="1">
         <v>5</v>
       </c>
-      <c r="Q8" s="11">
-        <v>10</v>
-      </c>
-      <c r="R8" s="21" t="s">
+      <c r="R8" s="1">
+        <v>10</v>
+      </c>
+      <c r="S8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="T8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="U8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="18" customFormat="1">
-      <c r="B9" s="19">
+    <row r="9" spans="1:21">
+      <c r="B9" s="5">
         <v>8</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="11">
         <v>2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="1">
         <v>15</v>
       </c>
-      <c r="F9" s="23">
-        <v>0</v>
-      </c>
-      <c r="G9" s="23">
-        <v>10</v>
-      </c>
-      <c r="H9" s="23">
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12">
+        <v>10</v>
+      </c>
+      <c r="I9" s="12">
         <v>1.25</v>
       </c>
-      <c r="I9" s="23">
+      <c r="J9" s="12">
         <v>0.5</v>
       </c>
-      <c r="J9" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K9" s="11">
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
-        <v>1</v>
-      </c>
-      <c r="M9" s="23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="K9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O9" s="1">
         <v>1.6</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="P9" t="s">
         <v>31</v>
       </c>
-      <c r="P9" s="11">
+      <c r="Q9" s="1">
         <v>5</v>
       </c>
-      <c r="Q9" s="11">
-        <v>10</v>
-      </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="1">
+        <v>10</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="T9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="T9" s="24" t="s">
+      <c r="U9" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="18" customFormat="1">
-      <c r="B10" s="19">
+    <row r="10" spans="1:21">
+      <c r="B10" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="1">
         <v>90</v>
       </c>
-      <c r="F10" s="11">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11">
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
         <v>7</v>
       </c>
-      <c r="H10" s="11">
+      <c r="I10" s="1">
         <v>1.5</v>
       </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>1</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
-        <v>1</v>
-      </c>
-      <c r="M10" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O10" s="1">
         <v>1.6</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="P10" t="s">
         <v>32</v>
       </c>
-      <c r="P10" s="11">
+      <c r="Q10" s="1">
         <v>5</v>
       </c>
-      <c r="Q10" s="11">
-        <v>10</v>
-      </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="1">
+        <v>10</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="S10" s="24" t="s">
+      <c r="T10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="T10" s="24" t="s">
+      <c r="U10" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="18" customFormat="1">
-      <c r="B11" s="19">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20" t="s">
+    <row r="11" spans="1:21">
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
         <v>7</v>
       </c>
-      <c r="H11" s="11">
+      <c r="I11" s="1">
         <v>0.75</v>
       </c>
-      <c r="I11" s="11">
+      <c r="J11" s="1">
         <v>0.5</v>
       </c>
-      <c r="J11" s="11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="11">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O11" s="1">
         <v>1.6</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="P11" t="s">
         <v>42</v>
       </c>
-      <c r="P11" s="11">
+      <c r="Q11" s="1">
         <v>5</v>
       </c>
-      <c r="Q11" s="11">
-        <v>10</v>
-      </c>
-      <c r="R11" s="21">
-        <v>0</v>
-      </c>
-      <c r="S11" s="21">
-        <v>0</v>
-      </c>
-      <c r="T11" s="21">
+      <c r="R11" s="1">
+        <v>10</v>
+      </c>
+      <c r="S11" s="7">
+        <v>0</v>
+      </c>
+      <c r="T11" s="7">
+        <v>0</v>
+      </c>
+      <c r="U11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1">
-      <c r="B12" s="19">
+    <row r="12" spans="1:21">
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="1">
         <v>45</v>
       </c>
-      <c r="F12" s="11">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11">
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
         <v>14</v>
       </c>
-      <c r="H12" s="11">
+      <c r="I12" s="1">
         <v>1.75</v>
       </c>
-      <c r="I12" s="11">
+      <c r="J12" s="1">
         <v>0.5</v>
       </c>
-      <c r="J12" s="11">
-        <v>1</v>
-      </c>
-      <c r="K12" s="11">
-        <v>0</v>
-      </c>
-      <c r="L12" s="11">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O12" s="1">
         <v>1.6</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="P12" t="s">
         <v>43</v>
       </c>
-      <c r="P12" s="11">
+      <c r="Q12" s="1">
         <v>5</v>
       </c>
-      <c r="Q12" s="11">
-        <v>10</v>
-      </c>
-      <c r="R12" s="21">
-        <v>0</v>
-      </c>
-      <c r="S12" s="21">
-        <v>0</v>
-      </c>
-      <c r="T12" s="21">
+      <c r="R12" s="1">
+        <v>10</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+      <c r="T12" s="7">
+        <v>0</v>
+      </c>
+      <c r="U12" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" s="25" customFormat="1">
-      <c r="B13" s="26">
+    <row r="13" spans="1:21" s="13" customFormat="1">
+      <c r="B13" s="14">
         <v>12</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="16">
         <v>8</v>
       </c>
       <c r="E13" s="9">
         <v>70</v>
       </c>
-      <c r="F13" s="28">
-        <v>1</v>
-      </c>
-      <c r="G13" s="28">
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16">
         <v>30</v>
       </c>
-      <c r="H13" s="28">
+      <c r="I13" s="16">
         <v>3.25</v>
       </c>
-      <c r="I13" s="28">
+      <c r="J13" s="16">
         <v>1.25</v>
       </c>
-      <c r="J13" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="28">
-        <v>1</v>
-      </c>
-      <c r="M13" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N13" s="9">
+      <c r="K13" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L13" s="9">
+        <v>0</v>
+      </c>
+      <c r="M13" s="16">
+        <v>1</v>
+      </c>
+      <c r="N13" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O13" s="9">
         <v>1.6</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="P13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P13" s="28">
+      <c r="Q13" s="16">
         <v>5</v>
       </c>
-      <c r="Q13" s="9">
-        <v>10</v>
-      </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="9">
+        <v>10</v>
+      </c>
+      <c r="S13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="T13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="U13" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="25" customFormat="1">
-      <c r="B14" s="26">
+    <row r="14" spans="1:21" s="13" customFormat="1">
+      <c r="B14" s="14">
         <v>13</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="16">
         <v>7</v>
       </c>
       <c r="E14" s="9">
         <v>60</v>
       </c>
-      <c r="F14" s="28">
-        <v>1</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="16">
         <v>35</v>
       </c>
-      <c r="H14" s="28">
+      <c r="I14" s="16">
         <v>3</v>
       </c>
-      <c r="I14" s="28">
+      <c r="J14" s="16">
         <v>0.5</v>
       </c>
-      <c r="J14" s="28">
-        <v>1</v>
-      </c>
-      <c r="K14" s="9">
-        <v>0</v>
-      </c>
-      <c r="L14" s="28">
-        <v>1</v>
-      </c>
-      <c r="M14" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N14" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="O14" s="25" t="s">
+      <c r="K14" s="16">
+        <v>1</v>
+      </c>
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>1</v>
+      </c>
+      <c r="N14" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O14" s="9">
+        <v>6</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="P14" s="28">
+      <c r="Q14" s="16">
         <v>6</v>
       </c>
-      <c r="Q14" s="9">
-        <v>10</v>
-      </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="9">
+        <v>10</v>
+      </c>
+      <c r="S14" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="T14" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="U14" s="13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="25" customFormat="1">
-      <c r="B15" s="26">
+    <row r="15" spans="1:21" s="13" customFormat="1">
+      <c r="B15" s="14">
         <v>14</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="16">
         <v>9</v>
       </c>
       <c r="E15" s="9">
         <v>90</v>
       </c>
-      <c r="F15" s="28">
-        <v>1</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16">
         <v>40</v>
       </c>
-      <c r="H15" s="28">
+      <c r="I15" s="16">
         <v>3.5</v>
       </c>
-      <c r="I15" s="28">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K15" s="9">
-        <v>0</v>
-      </c>
-      <c r="L15" s="28">
-        <v>1</v>
-      </c>
-      <c r="M15" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N15" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="O15" s="25" t="s">
+      <c r="J15" s="16">
+        <v>1</v>
+      </c>
+      <c r="K15" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L15" s="9">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>1</v>
+      </c>
+      <c r="N15" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O15" s="9">
+        <v>10</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="P15" s="28">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="9">
-        <v>10</v>
-      </c>
-      <c r="R15" s="25" t="s">
+      <c r="Q15" s="16">
+        <v>10</v>
+      </c>
+      <c r="R15" s="9">
+        <v>10</v>
+      </c>
+      <c r="S15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="T15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="U15" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="25" customFormat="1">
-      <c r="B16" s="26">
+    <row r="16" spans="1:21" s="13" customFormat="1">
+      <c r="B16" s="14">
         <v>15</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="16">
         <v>9</v>
       </c>
       <c r="E16" s="9">
         <v>90</v>
       </c>
-      <c r="F16" s="28">
-        <v>1</v>
-      </c>
-      <c r="G16" s="28">
+      <c r="F16" s="9">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
         <v>40</v>
       </c>
-      <c r="H16" s="28">
+      <c r="I16" s="16">
         <v>3.5</v>
       </c>
-      <c r="I16" s="28">
+      <c r="J16" s="16">
         <v>1.5</v>
       </c>
-      <c r="J16" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K16" s="9">
-        <v>0</v>
-      </c>
-      <c r="L16" s="28">
-        <v>1</v>
-      </c>
-      <c r="M16" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N16" s="9">
+      <c r="K16" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L16" s="9">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O16" s="9">
         <v>1.6</v>
       </c>
-      <c r="O16" s="25" t="s">
+      <c r="P16" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="P16" s="28">
+      <c r="Q16" s="16">
         <v>5</v>
       </c>
-      <c r="Q16" s="9">
-        <v>10</v>
-      </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="9">
+        <v>10</v>
+      </c>
+      <c r="S16" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="S16" s="25" t="s">
+      <c r="T16" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="T16" s="25" t="s">
+      <c r="U16" s="13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:20" s="25" customFormat="1">
-      <c r="B17" s="26">
+    <row r="17" spans="2:21" s="13" customFormat="1">
+      <c r="B17" s="14">
         <v>16</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="16">
         <v>8</v>
       </c>
       <c r="E17" s="9">
         <v>70</v>
       </c>
-      <c r="F17" s="28">
-        <v>1</v>
-      </c>
-      <c r="G17" s="28">
+      <c r="F17" s="9">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16">
         <v>30</v>
       </c>
-      <c r="H17" s="28">
+      <c r="I17" s="16">
         <v>3.25</v>
       </c>
-      <c r="I17" s="28">
-        <v>1</v>
-      </c>
-      <c r="J17" s="28">
+      <c r="J17" s="16">
+        <v>1</v>
+      </c>
+      <c r="K17" s="16">
         <v>1.2</v>
       </c>
-      <c r="K17" s="9">
-        <v>0</v>
-      </c>
-      <c r="L17" s="28">
-        <v>1</v>
-      </c>
-      <c r="M17" s="28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N17" s="9">
+      <c r="L17" s="9">
+        <v>0</v>
+      </c>
+      <c r="M17" s="16">
+        <v>1</v>
+      </c>
+      <c r="N17" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O17" s="9">
         <v>1.6</v>
       </c>
-      <c r="O17" s="25" t="s">
+      <c r="P17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="28">
+      <c r="Q17" s="16">
         <v>5</v>
       </c>
-      <c r="Q17" s="9">
-        <v>10</v>
-      </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="9">
+        <v>10</v>
+      </c>
+      <c r="S17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="S17" s="25" t="s">
+      <c r="T17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="T17" s="25" t="s">
+      <c r="U17" s="13" t="s">
         <v>40</v>
       </c>
     </row>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3405F2-53A4-4ED8-B176-CFC06E1FDC90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D378D6-4858-4B99-A062-38F0CFDC0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
@@ -958,7 +958,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1830,13 +1830,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O14" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" s="13" t="s">
         <v>52</v>
       </c>
       <c r="Q14" s="16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R14" s="9">
         <v>10</v>
@@ -1892,7 +1892,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="O15" s="9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P15" s="13" t="s">
         <v>53</v>

--- a/excel2json-master/FieldMonster_Data.xlsx
+++ b/excel2json-master/FieldMonster_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이영선\Desktop\Sparta_Club\Project_P\Project_P\excel2json-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D378D6-4858-4B99-A062-38F0CFDC0599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E203E8E-D727-46BC-B7FF-06CF1176D7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
+    <workbookView xWindow="1020" yWindow="2460" windowWidth="13605" windowHeight="11595" xr2:uid="{72DB4AE2-8199-4472-B082-34F26D3D5631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>33,33,33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs/Monsters/QuestSkunk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -443,10 +439,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,1,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,1,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,14 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,1,33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,1,1,15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,6 +464,22 @@
   </si>
   <si>
     <t>ShortDistance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1,33,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,12,13,33,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,15,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,4,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,10 +955,10 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -997,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>10</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T2" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>40</v>
@@ -1222,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="U4" s="6" t="s">
         <v>40</v>
@@ -1284,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="S5" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T5" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U5" s="7" t="s">
         <v>40</v>
@@ -1346,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="S6" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="T6" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>40</v>
@@ -1399,7 +1399,7 @@
         <v>1.6</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="1">
         <v>5</v>
@@ -1461,7 +1461,7 @@
         <v>1.6</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="1">
         <v>5</v>
@@ -1470,13 +1470,13 @@
         <v>10</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1532,13 +1532,13 @@
         <v>10</v>
       </c>
       <c r="S9" s="6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1594,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U10" s="6" t="s">
         <v>37</v>
@@ -1647,7 +1647,7 @@
         <v>1.6</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q11" s="1">
         <v>5</v>
@@ -1670,7 +1670,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1">
         <v>4</v>
@@ -1709,7 +1709,7 @@
         <v>1.6</v>
       </c>
       <c r="P12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q12" s="1">
         <v>5</v>
@@ -1732,7 +1732,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="16">
         <v>8</v>
@@ -1771,7 +1771,7 @@
         <v>1.6</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="16">
         <v>5</v>
@@ -1780,10 +1780,10 @@
         <v>10</v>
       </c>
       <c r="S13" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T13" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U13" s="13" t="s">
         <v>40</v>
@@ -1794,7 +1794,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="16">
         <v>7</v>
@@ -1833,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q14" s="16">
         <v>10</v>
@@ -1842,10 +1842,10 @@
         <v>10</v>
       </c>
       <c r="S14" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="T14" s="13" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="U14" s="13" t="s">
         <v>40</v>
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="16">
         <v>9</v>
@@ -1895,7 +1895,7 @@
         <v>6</v>
       </c>
       <c r="P15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="16">
         <v>10</v>
@@ -1904,10 +1904,10 @@
         <v>10</v>
       </c>
       <c r="S15" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T15" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U15" s="13" t="s">
         <v>37</v>
@@ -1918,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="16">
         <v>9</v>
@@ -1957,7 +1957,7 @@
         <v>1.6</v>
       </c>
       <c r="P16" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q16" s="16">
         <v>5</v>
@@ -1966,10 +1966,10 @@
         <v>10</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T16" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U16" s="13" t="s">
         <v>37</v>
@@ -1980,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="16">
         <v>8</v>
@@ -2019,7 +2019,7 @@
         <v>1.6</v>
       </c>
       <c r="P17" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="16">
         <v>5</v>
@@ -2028,10 +2028,10 @@
         <v>10</v>
       </c>
       <c r="S17" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T17" s="13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="U17" s="13" t="s">
         <v>40</v>
